--- a/ESL/ESL_modalities.xlsx
+++ b/ESL/ESL_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>13.375</v>
+        <v>12.25</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -578,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>8.333333333333334</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>

--- a/ESL/ESL_modalities.xlsx
+++ b/ESL/ESL_modalities.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,30 +514,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>25</v>
@@ -546,51 +546,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>12.25</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G5" t="n">
-        <v>28.125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>85</v>
-      </c>
-      <c r="G6" t="n">
-        <v>28.33333333333333</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/ESL/ESL_modalities.xlsx
+++ b/ESL/ESL_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
